--- a/データ取り扱い規定/Git運用計画.xlsx
+++ b/データ取り扱い規定/Git運用計画.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\creat\Elina_Lead\データ取り扱い規定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7061CDD-3B89-4FA5-A37C-4B026EDB4576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C67BC-A19B-4DA2-8E6F-75ADB20F47DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
+    <workbookView xWindow="11100" yWindow="2790" windowWidth="16470" windowHeight="11295" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
   </bookViews>
   <sheets>
     <sheet name="運用ルール" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>使用方法でブランチ名を決める</t>
     <rPh sb="0" eb="4">
@@ -755,6 +755,35 @@
       <t>オコナ</t>
     </rPh>
     <rPh sb="130" eb="131">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conservative-fix/xxx ブランチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保守的な修正を行うブランチ（タイポ修正や型整合性チェックなど）、developから作られ、developにマージされる</t>
+    <rPh sb="0" eb="3">
+      <t>ホシュテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
       <t>ツク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1140,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D77247-68D6-4A0B-8BFB-A8E8A005CCCD}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1225,41 +1254,49 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>38</v>
       </c>
     </row>

--- a/データ取り扱い規定/Git運用計画.xlsx
+++ b/データ取り扱い規定/Git運用計画.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\creat\Elina_Lead\データ取り扱い規定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C67BC-A19B-4DA2-8E6F-75ADB20F47DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E138A-0195-4405-94AB-010FB2CD3C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="2790" windowWidth="16470" windowHeight="11295" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
   </bookViews>
   <sheets>
     <sheet name="運用ルール" sheetId="1" r:id="rId1"/>
@@ -1171,13 +1171,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D77247-68D6-4A0B-8BFB-A8E8A005CCCD}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1318,9 +1318,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1338,13 +1338,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F0B39E-1290-4D2D-A6E6-3A8E6C9B4F07}">
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>

--- a/データ取り扱い規定/Git運用計画.xlsx
+++ b/データ取り扱い規定/Git運用計画.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\creat\Elina_Lead\データ取り扱い規定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E138A-0195-4405-94AB-010FB2CD3C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B94D3F-7F25-41F1-B093-2E11F5EDCD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
   </bookViews>
   <sheets>
     <sheet name="運用ルール" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>使用方法でブランチ名を決める</t>
     <rPh sb="0" eb="4">
@@ -103,14 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>develop ブランチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>main/master ブランチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>feature/xxx ブランチ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -785,6 +777,49 @@
     </rPh>
     <rPh sb="41" eb="42">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main(master) ブランチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>develop ブランチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pull request(プルリクエスト)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチの編集内容を派生元のバージョンにマージする際に、マージ内容の最終確認や、説明を行う場所</t>
+    <rPh sb="5" eb="8">
+      <t>ヘンシュウナイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ハセイモト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>サイシュウカクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1171,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D77247-68D6-4A0B-8BFB-A8E8A005CCCD}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1206,18 +1241,18 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1225,79 +1260,79 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1357,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2">
         <v>45231</v>
@@ -1336,17 +1371,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F0B39E-1290-4D2D-A6E6-3A8E6C9B4F07}">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1354,42 +1389,50 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/データ取り扱い規定/Git運用計画.xlsx
+++ b/データ取り扱い規定/Git運用計画.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\creat\Elina_Lead\データ取り扱い規定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\データ取り扱い規定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B94D3F-7F25-41F1-B093-2E11F5EDCD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4CE19-E45A-4000-B650-B4FE0A2E2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
+    <workbookView xWindow="2064" yWindow="2796" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
   </bookViews>
   <sheets>
     <sheet name="運用ルール" sheetId="1" r:id="rId1"/>
-    <sheet name="記録" sheetId="3" r:id="rId2"/>
-    <sheet name="用語解説" sheetId="2" r:id="rId3"/>
+    <sheet name="用語解説" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>使用方法でブランチ名を決める</t>
     <rPh sb="0" eb="4">
@@ -267,10 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chery pick</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>部分的に切り出したり取り込んだりすること</t>
     <rPh sb="0" eb="3">
       <t>ブブンテキ</t>
@@ -315,44 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トランクとして使用される。不具合がなく、正常に動作することを求められる、安定し、動作確認ができたreleaseブランチから更新をかける、バグなどの修正時はbugfixブランチから修正がかかる</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>アンテイ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>ドウサカクニン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>シュウセイジ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>trank(トランク)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在の主流となっているバージョン、本実装部分である。mainまたはmasterと命名されることがある</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
@@ -477,79 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マージが完了したブランチは削除する、たとえその後に修正や更新があるとしても削除する。修正や更新を行いたい場合は新しいブランチを作ればいい、ブランチ削除前に新しい修正や更新用のブランチをそこから派生して作るのはよいがdevelopのデータを引き継がない状態が長続きしないこと。</t>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>サクジョマエ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="100" eb="101">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ナガツヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コミット制限</t>
     <rPh sb="4" eb="6">
       <t>セイゲン</t>
@@ -575,36 +459,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>xxxには実装や目的にそった命名を行う</t>
-    <rPh sb="5" eb="7">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>メイメイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日1コミット</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>運用開始日</t>
-    <rPh sb="0" eb="5">
-      <t>ウンヨウカイシビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業を行ったらその日中に1コミットは行う。あまりデータをローカルにため込むと、データ破損のリスクが実装した分だけ高くなる、毎日増分をバックアップしていれば破損によるリスクも少ないし、実装内容を細かく書いても見やすく保てる。このルールは絶対的なものではなくてあくまでも推奨事項であるので、何らかの理由がある場合は無視でよい（回線の不具合など）</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -690,22 +544,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>main/master, develop, releaseへの更新はかならずそれに対応したブランチからマージでの更新を行う</t>
-    <rPh sb="31" eb="33">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リリース用のブランチ、developでのデータを正確に統合させ、デバッグなどを行い動作を安定させたバージョン、安定化作業による開発のフリーズはこのブランチで行い、mainブランチにマージするまで動作安定のための実装を行う、developかmainのどちらかから作られる</t>
     <rPh sb="4" eb="5">
       <t>ヨウ</t>
@@ -820,6 +658,183 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージが完了したブランチは削除する、たとえその後に修正や更新があるとしても削除する。修正や更新を行いたい場合は新しいブランチを作る、ブランチ削除前に新しい修正や更新用のブランチをそこから派生して作るのはよいがdevelopのデータを引き継がない状態が長続きしないこと。</t>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>サクジョマエ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ナガツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main/master, develop, releaseへの更新はかならずそれに対応したブランチからマージでの更新を行う（ルールで設定済み）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxには実装や目的にそった命名を行う、基本的には自由だが何であるかの識別ができること</t>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>メイメイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日1コミット推奨</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cherry pick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trunk(トランク)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランク(trunk)として使用される。不具合がなく、正常に動作することを求められる、安定し、動作確認ができたreleaseブランチから更新をかける、バグの修正はdevelopから行う</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag(タグ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルリクエストの種類を設定することができる機能、タグによる検索を掛けるなどが可能</t>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -879,14 +894,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1206,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D77247-68D6-4A0B-8BFB-A8E8A005CCCD}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1241,15 +1253,15 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1260,7 +1272,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1289,50 +1301,50 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1346,34 +1358,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4C4710-9244-4D8C-845C-AF1F7A3BC6FC}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F0B39E-1290-4D2D-A6E6-3A8E6C9B4F07}">
+  <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45231</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F0B39E-1290-4D2D-A6E6-3A8E6C9B4F07}">
-  <dimension ref="A3:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1389,50 +1377,58 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/データ取り扱い規定/Git運用計画.xlsx
+++ b/データ取り扱い規定/Git運用計画.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\データ取り扱い規定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C4CE19-E45A-4000-B650-B4FE0A2E2F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDEDD06-514E-4143-9A43-E3EE4BFBF220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="2796" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{12DEA89F-E49A-4909-91A6-94DA825B79A7}"/>
   </bookViews>
   <sheets>
     <sheet name="運用ルール" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>使用方法でブランチ名を決める</t>
     <rPh sb="0" eb="4">
@@ -835,6 +835,56 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージ前確認</t>
+    <rPh sb="3" eb="4">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マージを行う前に、マージ先が正しいこと、プルリクエストの記述内容が正しいこと、コミット内容が正しく反映されていること、ラベルが正しく設定されていることを確認する</t>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>キジュツナイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1216,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D77247-68D6-4A0B-8BFB-A8E8A005CCCD}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1345,6 +1395,14 @@
       </c>
       <c r="E16" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1361,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F0B39E-1290-4D2D-A6E6-3A8E6C9B4F07}">
   <dimension ref="A3:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
